--- a/images/Book1.xlsx
+++ b/images/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mogya\develop\ohinRank\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5408291F-6E2E-4CB2-A455-0822E4E9CBD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7276C7C-0540-4808-8C44-26609F631BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{CFE2EA7A-2C18-4A70-BF66-14487AEABD53}"/>
   </bookViews>
@@ -412,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129202CA-2BCA-43E6-83FC-EF1A5055B84E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -449,8 +449,12 @@
         <f>C2/SUM($C$2:$C$7)</f>
         <v>1.305158483530143E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="1">
+        <f>SUM(D2:D$7)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,8 +469,12 @@
         <f t="shared" ref="D3:D7" si="1">C3/SUM($C$2:$C$7)</f>
         <v>0.15692977004350528</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="1">
+        <f>SUM(D3:D$7)</f>
+        <v>0.98694841516469844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -481,8 +489,12 @@
         <f t="shared" si="1"/>
         <v>0.2865133623368552</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="1">
+        <f>SUM(D4:D$7)</f>
+        <v>0.83001864512119317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -497,8 +509,12 @@
         <f t="shared" si="1"/>
         <v>0.39745183343691731</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="1">
+        <f>SUM(D5:D$7)</f>
+        <v>0.54350528278433807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -513,8 +529,12 @@
         <f t="shared" si="1"/>
         <v>0.137041640770665</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="1">
+        <f>SUM(D6:D$7)</f>
+        <v>0.14605344934742073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -529,8 +549,12 @@
         <f t="shared" si="1"/>
         <v>9.0118085767557487E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="1">
+        <f>SUM(D7:D$7)</f>
+        <v>9.0118085767557487E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
